--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd200r4</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,185 +522,495 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.3216052040644</v>
+        <v>65.569613</v>
       </c>
       <c r="H2">
-        <v>60.3216052040644</v>
+        <v>196.708839</v>
       </c>
       <c r="I2">
-        <v>0.6833049346309905</v>
+        <v>0.6815983651189281</v>
       </c>
       <c r="J2">
-        <v>0.6833049346309905</v>
+        <v>0.681598365118928</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>9.069869737196489</v>
+        <v>0.1322443333333333</v>
       </c>
       <c r="N2">
-        <v>9.069869737196489</v>
+        <v>0.396733</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.01281473224718535</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.01281473224718535</v>
       </c>
       <c r="Q2">
-        <v>547.1091015394579</v>
+        <v>8.671209758109667</v>
       </c>
       <c r="R2">
-        <v>547.1091015394579</v>
+        <v>78.040887822987</v>
       </c>
       <c r="S2">
-        <v>0.6833049346309905</v>
+        <v>0.00873450054911834</v>
       </c>
       <c r="T2">
-        <v>0.6833049346309905</v>
+        <v>0.008734500549118339</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.55387419865121</v>
+        <v>65.569613</v>
       </c>
       <c r="H3">
-        <v>4.55387419865121</v>
+        <v>196.708839</v>
       </c>
       <c r="I3">
-        <v>0.05158491225657001</v>
+        <v>0.6815983651189281</v>
       </c>
       <c r="J3">
-        <v>0.05158491225657001</v>
+        <v>0.681598365118928</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.069869737196489</v>
+        <v>10.18746666666667</v>
       </c>
       <c r="N3">
-        <v>9.069869737196489</v>
+        <v>30.5624</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9871852677528148</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9871852677528146</v>
       </c>
       <c r="Q3">
-        <v>41.30304578134652</v>
+        <v>667.9882467837334</v>
       </c>
       <c r="R3">
-        <v>41.30304578134652</v>
+        <v>6011.894221053601</v>
       </c>
       <c r="S3">
-        <v>0.05158491225657001</v>
+        <v>0.6728638645698098</v>
       </c>
       <c r="T3">
-        <v>0.05158491225657001</v>
+        <v>0.6728638645698096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>4.561623333333333</v>
+      </c>
+      <c r="H4">
+        <v>13.68487</v>
+      </c>
+      <c r="I4">
+        <v>0.04741823024467683</v>
+      </c>
+      <c r="J4">
+        <v>0.04741823024467683</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.1322443333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.396733</v>
+      </c>
+      <c r="O4">
+        <v>0.01281473224718535</v>
+      </c>
+      <c r="P4">
+        <v>0.01281473224718535</v>
+      </c>
+      <c r="Q4">
+        <v>0.6032488366344444</v>
+      </c>
+      <c r="R4">
+        <v>5.42923952971</v>
+      </c>
+      <c r="S4">
+        <v>0.0006076519242209196</v>
+      </c>
+      <c r="T4">
+        <v>0.0006076519242209196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4.561623333333333</v>
+      </c>
+      <c r="H5">
+        <v>13.68487</v>
+      </c>
+      <c r="I5">
+        <v>0.04741823024467683</v>
+      </c>
+      <c r="J5">
+        <v>0.04741823024467683</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>10.18746666666667</v>
+      </c>
+      <c r="N5">
+        <v>30.5624</v>
+      </c>
+      <c r="O5">
+        <v>0.9871852677528148</v>
+      </c>
+      <c r="P5">
+        <v>0.9871852677528146</v>
+      </c>
+      <c r="Q5">
+        <v>46.47138565422222</v>
+      </c>
+      <c r="R5">
+        <v>418.242470888</v>
+      </c>
+      <c r="S5">
+        <v>0.04681057832045591</v>
+      </c>
+      <c r="T5">
+        <v>0.0468105783204559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.611825</v>
+      </c>
+      <c r="H6">
+        <v>1.835475</v>
+      </c>
+      <c r="I6">
+        <v>0.006359941757455365</v>
+      </c>
+      <c r="J6">
+        <v>0.006359941757455365</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.1322443333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.396733</v>
+      </c>
+      <c r="O6">
+        <v>0.01281473224718535</v>
+      </c>
+      <c r="P6">
+        <v>0.01281473224718535</v>
+      </c>
+      <c r="Q6">
+        <v>0.08091038924166666</v>
+      </c>
+      <c r="R6">
+        <v>0.728193503175</v>
+      </c>
+      <c r="S6">
+        <v>8.150095072948391E-05</v>
+      </c>
+      <c r="T6">
+        <v>8.150095072948391E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.611825</v>
+      </c>
+      <c r="H7">
+        <v>1.835475</v>
+      </c>
+      <c r="I7">
+        <v>0.006359941757455365</v>
+      </c>
+      <c r="J7">
+        <v>0.006359941757455365</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10.18746666666667</v>
+      </c>
+      <c r="N7">
+        <v>30.5624</v>
+      </c>
+      <c r="O7">
+        <v>0.9871852677528148</v>
+      </c>
+      <c r="P7">
+        <v>0.9871852677528146</v>
+      </c>
+      <c r="Q7">
+        <v>6.232946793333333</v>
+      </c>
+      <c r="R7">
+        <v>56.09652114</v>
+      </c>
+      <c r="S7">
+        <v>0.006278440806725882</v>
+      </c>
+      <c r="T7">
+        <v>0.00627844080672588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>23.403709209672</v>
-      </c>
-      <c r="H4">
-        <v>23.403709209672</v>
-      </c>
-      <c r="I4">
-        <v>0.2651101531124395</v>
-      </c>
-      <c r="J4">
-        <v>0.2651101531124395</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>9.069869737196489</v>
-      </c>
-      <c r="N4">
-        <v>9.069869737196489</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>212.2685938989509</v>
-      </c>
-      <c r="R4">
-        <v>212.2685938989509</v>
-      </c>
-      <c r="S4">
-        <v>0.2651101531124395</v>
-      </c>
-      <c r="T4">
-        <v>0.2651101531124395</v>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>25.456719</v>
+      </c>
+      <c r="H8">
+        <v>76.37015699999999</v>
+      </c>
+      <c r="I8">
+        <v>0.2646234628789398</v>
+      </c>
+      <c r="J8">
+        <v>0.2646234628789398</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1322443333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.396733</v>
+      </c>
+      <c r="O8">
+        <v>0.01281473224718535</v>
+      </c>
+      <c r="P8">
+        <v>0.01281473224718535</v>
+      </c>
+      <c r="Q8">
+        <v>3.366506833008999</v>
+      </c>
+      <c r="R8">
+        <v>30.298561497081</v>
+      </c>
+      <c r="S8">
+        <v>0.003391078823116604</v>
+      </c>
+      <c r="T8">
+        <v>0.003391078823116604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>25.456719</v>
+      </c>
+      <c r="H9">
+        <v>76.37015699999999</v>
+      </c>
+      <c r="I9">
+        <v>0.2646234628789398</v>
+      </c>
+      <c r="J9">
+        <v>0.2646234628789398</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>10.18746666666667</v>
+      </c>
+      <c r="N9">
+        <v>30.5624</v>
+      </c>
+      <c r="O9">
+        <v>0.9871852677528148</v>
+      </c>
+      <c r="P9">
+        <v>0.9871852677528146</v>
+      </c>
+      <c r="Q9">
+        <v>259.3394762552</v>
+      </c>
+      <c r="R9">
+        <v>2334.0552862968</v>
+      </c>
+      <c r="S9">
+        <v>0.2612323840558233</v>
+      </c>
+      <c r="T9">
+        <v>0.2612323840558232</v>
       </c>
     </row>
   </sheetData>
